--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/ALASKA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/ALASKA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C21">
@@ -1060,7 +1060,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C48">
@@ -1094,76 +1094,6 @@
       </c>
       <c r="D50">
         <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/ALASKA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/ALASKA_2016.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Ocuilan</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -680,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -711,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -724,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -755,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -768,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -781,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -794,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -807,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -838,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Yogana</t>
@@ -851,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -882,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -895,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -926,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -957,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -988,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1019,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1032,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -1045,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -1058,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -1071,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
